--- a/AGILENT/METRICS/df_daily_unstacked_2020_02_25.xlsx
+++ b/AGILENT/METRICS/df_daily_unstacked_2020_02_25.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,233 +402,222 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43845</v>
+        <v>43857</v>
       </c>
       <c r="B2">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43846</v>
+        <v>43858</v>
       </c>
       <c r="B3">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43847</v>
+        <v>43859</v>
       </c>
       <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43851</v>
+        <v>43860</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43852</v>
+        <v>43861</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43853</v>
+        <v>43864</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43854</v>
+        <v>43865</v>
       </c>
       <c r="B8">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43855</v>
+        <v>43866</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43857</v>
+        <v>43867</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43858</v>
+        <v>43868</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43859</v>
+        <v>43869</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43860</v>
+        <v>43871</v>
       </c>
       <c r="B13">
-        <v>21</v>
-      </c>
-      <c r="C13">
+        <v>46</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43861</v>
+        <v>43872</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43864</v>
+        <v>43873</v>
       </c>
       <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43865</v>
+        <v>43874</v>
       </c>
       <c r="B16">
         <v>33</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43866</v>
+        <v>43875</v>
       </c>
       <c r="B17">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43867</v>
+        <v>43876</v>
       </c>
       <c r="B18">
-        <v>41</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43868</v>
+        <v>43879</v>
       </c>
       <c r="B19">
         <v>29</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43869</v>
+        <v>43880</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43871</v>
+        <v>43881</v>
       </c>
       <c r="B21">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43872</v>
+        <v>43882</v>
       </c>
       <c r="B22">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43873</v>
+        <v>43885</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43874</v>
+        <v>43886</v>
       </c>
       <c r="B24">
-        <v>33</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/AGILENT/METRICS/df_daily_unstacked_2020_02_25.xlsx
+++ b/AGILENT/METRICS/df_daily_unstacked_2020_02_25.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,222 +402,233 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43861</v>
+        <v>43864</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B10">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B11">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43869</v>
+        <v>43871</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B13">
-        <v>46</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B16">
-        <v>33</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43876</v>
+        <v>43879</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B19">
-        <v>29</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B20">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B22">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B23">
-        <v>14</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B25">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/AGILENT/METRICS/df_daily_unstacked_2020_02_25.xlsx
+++ b/AGILENT/METRICS/df_daily_unstacked_2020_02_25.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +405,10 @@
         <v>43858</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -413,7 +416,10 @@
         <v>43859</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -421,9 +427,12 @@
         <v>43860</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
@@ -432,7 +441,10 @@
         <v>43861</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -440,10 +452,10 @@
         <v>43864</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -454,7 +466,10 @@
         <v>43865</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -462,7 +477,10 @@
         <v>43866</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -473,7 +491,10 @@
         <v>43867</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -484,151 +505,168 @@
         <v>43868</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43869</v>
+        <v>43871</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B12">
-        <v>46</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
         <v>24</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B15">
-        <v>33</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43876</v>
+        <v>43880</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43879</v>
+        <v>43881</v>
       </c>
       <c r="B18">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43880</v>
+        <v>43882</v>
       </c>
       <c r="B19">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43881</v>
+        <v>43885</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B21">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43886</v>
+        <v>43888</v>
       </c>
       <c r="B23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
-        <v>43887</v>
-      </c>
-      <c r="B24">
-        <v>33</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
-        <v>43888</v>
-      </c>
-      <c r="B25">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
